--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Predator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F59DA61-03FD-4E6F-A5B7-17C7AFBDE50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA30B3-17C8-427A-BCE1-F95E04B016CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{214DF15A-A11F-42D6-A0BD-4186D1606FC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>a</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
